--- a/GewitterMonitor_v3_PartList.xlsx
+++ b/GewitterMonitor_v3_PartList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4716c97eca9966ef/Elektronik/Projekte/GewitterMonitor_v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4716c97eca9966ef/Dokumente/GitHub/GewitterMonitor_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE2FB75A-E711-4042-A004-6B68C337321C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{EE2FB75A-E711-4042-A004-6B68C337321C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A42FB820-CF88-4A87-98F7-8C48AF8EFDB0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{900EB492-0AF8-4F4B-B868-9F27BB9998B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{900EB492-0AF8-4F4B-B868-9F27BB9998B1}"/>
   </bookViews>
   <sheets>
     <sheet name="GewitterMonitor" sheetId="2" r:id="rId1"/>
@@ -302,9 +302,6 @@
     <t>U7</t>
   </si>
   <si>
-    <t>TSR_1-24150</t>
-  </si>
-  <si>
     <t>Converter_DCDC:Converter_DCDC_TRACO_TSR-1_THT</t>
   </si>
   <si>
@@ -522,6 +519,9 @@
   </si>
   <si>
     <t>max 100cm</t>
+  </si>
+  <si>
+    <t>TSR_1-2450</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -975,11 +975,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188236E7-BE6B-4B73-B46F-09CED1D8AE77}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:F55"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -991,32 +991,32 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>113</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1031,12 +1031,12 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1051,12 +1051,12 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1071,12 +1071,12 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1187,18 +1187,18 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -1213,12 +1213,12 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -1250,12 +1250,12 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -1270,12 +1270,12 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
@@ -1290,12 +1290,12 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
         <v>60</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
         <v>66</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
@@ -1513,20 +1513,20 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
         <v>136</v>
-      </c>
-      <c r="C33" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
         <v>70</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
@@ -1577,12 +1577,12 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
         <v>78</v>
@@ -1599,12 +1599,12 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
@@ -1621,36 +1621,36 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
         <v>83</v>
       </c>
       <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
         <v>84</v>
       </c>
-      <c r="D41" t="s">
-        <v>85</v>
-      </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
         <v>86</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>87</v>
-      </c>
-      <c r="D42" t="s">
-        <v>88</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
         <v>139</v>
-      </c>
-      <c r="B46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" t="s">
-        <v>140</v>
       </c>
       <c r="D46" t="s">
         <v>42</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -1708,41 +1708,41 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
         <v>142</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>143</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>144</v>
-      </c>
-      <c r="D48" t="s">
-        <v>145</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
         <v>147</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>148</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>149</v>
-      </c>
-      <c r="D49" t="s">
-        <v>150</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -1750,16 +1750,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
         <v>45</v>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
@@ -1816,12 +1816,12 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1831,24 +1831,24 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1868,7 +1868,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
